--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H2">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I2">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J2">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>2602.30705426008</v>
+        <v>1226.692080180263</v>
       </c>
       <c r="R2">
-        <v>23420.76348834072</v>
+        <v>11040.22872162236</v>
       </c>
       <c r="S2">
-        <v>0.2593339377524517</v>
+        <v>0.1886427381891983</v>
       </c>
       <c r="T2">
-        <v>0.2593339377524517</v>
+        <v>0.1886427381891983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H3">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I3">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J3">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>2458.93293166109</v>
+        <v>2136.495437859689</v>
       </c>
       <c r="R3">
-        <v>22130.39638494981</v>
+        <v>19228.4589407372</v>
       </c>
       <c r="S3">
-        <v>0.2450459329128495</v>
+        <v>0.3285538042010966</v>
       </c>
       <c r="T3">
-        <v>0.2450459329128496</v>
+        <v>0.3285538042010966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H4">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I4">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J4">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>2883.976462831197</v>
+        <v>2639.376586403727</v>
       </c>
       <c r="R4">
-        <v>25955.78816548077</v>
+        <v>23754.38927763355</v>
       </c>
       <c r="S4">
-        <v>0.2874038139607846</v>
+        <v>0.4058876994612142</v>
       </c>
       <c r="T4">
-        <v>0.2874038139607846</v>
+        <v>0.4058876994612142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.474317</v>
       </c>
       <c r="I5">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J5">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>130.302396851088</v>
+        <v>70.69263019706924</v>
       </c>
       <c r="R5">
-        <v>1172.721571659792</v>
+        <v>636.2336717736231</v>
       </c>
       <c r="S5">
-        <v>0.01298533684511086</v>
+        <v>0.01087122966361034</v>
       </c>
       <c r="T5">
-        <v>0.01298533684511086</v>
+        <v>0.01087122966361034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.474317</v>
       </c>
       <c r="I6">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J6">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>123.1233855232407</v>
@@ -818,10 +818,10 @@
         <v>1108.110469709166</v>
       </c>
       <c r="S6">
-        <v>0.0122699096345623</v>
+        <v>0.01893411798730721</v>
       </c>
       <c r="T6">
-        <v>0.01226990963456231</v>
+        <v>0.01893411798730722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.474317</v>
       </c>
       <c r="I7">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J7">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>144.4061126275802</v>
+        <v>152.1037560999195</v>
       </c>
       <c r="R7">
-        <v>1299.655013648222</v>
+        <v>1368.933804899276</v>
       </c>
       <c r="S7">
-        <v>0.01439084821367573</v>
+        <v>0.02339076733529926</v>
       </c>
       <c r="T7">
-        <v>0.01439084821367573</v>
+        <v>0.02339076733529927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H8">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I8">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J8">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>554.0294438150399</v>
+        <v>31.52117335845945</v>
       </c>
       <c r="R8">
-        <v>4986.264994335359</v>
+        <v>283.690560226135</v>
       </c>
       <c r="S8">
-        <v>0.05521202313929379</v>
+        <v>0.004847378204644801</v>
       </c>
       <c r="T8">
-        <v>0.05521202313929379</v>
+        <v>0.004847378204644801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H9">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I9">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J9">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>523.50518831992</v>
+        <v>54.89954990696333</v>
       </c>
       <c r="R9">
-        <v>4711.54669487928</v>
+        <v>494.09594916267</v>
       </c>
       <c r="S9">
-        <v>0.05217011639675447</v>
+        <v>0.008442543640032494</v>
       </c>
       <c r="T9">
-        <v>0.05217011639675448</v>
+        <v>0.008442543640032496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H10">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I10">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J10">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>613.9966738599733</v>
+        <v>67.8216222982911</v>
       </c>
       <c r="R10">
-        <v>5525.97006473976</v>
+        <v>610.3946006846199</v>
       </c>
       <c r="S10">
-        <v>0.06118808114451697</v>
+        <v>0.01042972131759678</v>
       </c>
       <c r="T10">
-        <v>0.06118808114451698</v>
+        <v>0.01042972131759678</v>
       </c>
     </row>
   </sheetData>
